--- a/10.xlsx
+++ b/10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/FaniHealthCare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fina-Health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4A34578C-47F6-A441-9100-9DA9F204800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BF652589-DFAD-4E8C-92FB-44BCE42325EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11300" yWindow="500" windowWidth="17120" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BatchTemplate" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="20" uniqueCount="20">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="22" uniqueCount="22">
   <si>
     <t>Batch id:</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Total Price:</t>
   </si>
   <si>
-    <t>13.04.2022</t>
-  </si>
-  <si>
     <t>delivery date:</t>
   </si>
   <si>
@@ -84,7 +81,16 @@
     <t>rm6</t>
   </si>
   <si>
-    <t>6g</t>
+    <t>2000.12.2</t>
+  </si>
+  <si>
+    <t>Bandage</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m6</t>
   </si>
 </sst>
 </file>
@@ -92,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;RM&quot;#,##0_);[Red]\(&quot;RM&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;RM&quot;#,##0_);[Red]\(&quot;RM&quot;#,##0\)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -579,7 +585,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -946,36 +952,36 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -989,12 +995,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1003,22 +1009,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>2</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
       <c r="C10">
         <v>6</v>
       </c>
@@ -1026,12 +1035,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1040,23 +1049,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1065,12 +1074,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -1079,7 +1088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>8</v>
       </c>
@@ -1093,18 +1102,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
